--- a/Yeriel/Hito 3/Plantilla_Lista_de_Tareas_de_la_revisión_4.xlsx
+++ b/Yeriel/Hito 3/Plantilla_Lista_de_Tareas_de_la_revisión_4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YZ\Repos\EmpenioFacil\Yeriel\Hito 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juuan\Desktop\6to semstre\Des. Software\Proyecto\EmpenioFacil\Yeriel\Hito 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984CE1E6-0059-4042-85DE-33EFBDA73FE6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EAB8E6-6BBF-4020-866E-C2546AEF9AA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Instructivo" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Casos de Uso'!$A$1:$BB$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Casos de Uso'!$A$1:$BB$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Casos de Uso'!$B:$F,'Casos de Uso'!$1:$5</definedName>
   </definedNames>
@@ -26,7 +26,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -711,14 +710,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BA60"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="6" ySplit="5" topLeftCell="Z36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="AL45" sqref="AL45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
@@ -1255,96 +1254,98 @@
         <v>1</v>
       </c>
       <c r="J8" s="10"/>
-      <c r="K8" s="8"/>
+      <c r="K8" s="8">
+        <v>1</v>
+      </c>
       <c r="L8" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="10"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="10"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="10"/>
       <c r="T8" s="8"/>
       <c r="U8" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" s="10"/>
       <c r="W8" s="8"/>
       <c r="X8" s="8">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="10"/>
       <c r="Z8" s="8"/>
       <c r="AA8" s="8">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="10"/>
       <c r="AC8" s="8"/>
       <c r="AD8" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="10"/>
       <c r="AF8" s="8"/>
       <c r="AG8" s="8">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH8" s="10"/>
       <c r="AI8" s="8"/>
       <c r="AJ8" s="8">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK8" s="10"/>
       <c r="AL8" s="8"/>
       <c r="AM8" s="8">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN8" s="10"/>
       <c r="AO8" s="8"/>
       <c r="AP8" s="8">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ8" s="10"/>
       <c r="AR8" s="8"/>
       <c r="AS8" s="8">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="10"/>
       <c r="AU8" s="8"/>
       <c r="AV8" s="8">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW8" s="10"/>
       <c r="AX8" s="8"/>
       <c r="AY8" s="8">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ8" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA8" s="11">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:53" ht="30" x14ac:dyDescent="0.25">
@@ -1366,96 +1367,98 @@
         <v>1</v>
       </c>
       <c r="J9" s="10"/>
-      <c r="K9" s="8"/>
+      <c r="K9" s="8">
+        <v>0.5</v>
+      </c>
       <c r="L9" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M9" s="10"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P9" s="10"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S9" s="10"/>
       <c r="T9" s="8"/>
       <c r="U9" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V9" s="10"/>
       <c r="W9" s="8"/>
       <c r="X9" s="8">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y9" s="10"/>
       <c r="Z9" s="8"/>
       <c r="AA9" s="8">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB9" s="10"/>
       <c r="AC9" s="8"/>
       <c r="AD9" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AE9" s="10"/>
       <c r="AF9" s="8"/>
       <c r="AG9" s="8">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH9" s="10"/>
       <c r="AI9" s="8"/>
       <c r="AJ9" s="8">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AK9" s="10"/>
       <c r="AL9" s="8"/>
       <c r="AM9" s="8">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AN9" s="10"/>
       <c r="AO9" s="8"/>
       <c r="AP9" s="8">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ9" s="10"/>
       <c r="AR9" s="8"/>
       <c r="AS9" s="8">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT9" s="10"/>
       <c r="AU9" s="8"/>
       <c r="AV9" s="8">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AW9" s="10"/>
       <c r="AX9" s="8"/>
       <c r="AY9" s="8">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AZ9" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BA9" s="11">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="2:53" ht="30" x14ac:dyDescent="0.25">
@@ -1477,96 +1480,98 @@
         <v>2</v>
       </c>
       <c r="J10" s="10"/>
-      <c r="K10" s="8"/>
+      <c r="K10" s="8">
+        <v>1</v>
+      </c>
       <c r="L10" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M10" s="10"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P10" s="10"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S10" s="10"/>
       <c r="T10" s="8"/>
       <c r="U10" s="8">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V10" s="10"/>
       <c r="W10" s="8"/>
       <c r="X10" s="8">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="10"/>
       <c r="Z10" s="8"/>
       <c r="AA10" s="8">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="10"/>
       <c r="AC10" s="8"/>
       <c r="AD10" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE10" s="10"/>
       <c r="AF10" s="8"/>
       <c r="AG10" s="8">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH10" s="10"/>
       <c r="AI10" s="8"/>
       <c r="AJ10" s="8">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK10" s="10"/>
       <c r="AL10" s="8"/>
       <c r="AM10" s="8">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN10" s="10"/>
       <c r="AO10" s="8"/>
       <c r="AP10" s="8">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ10" s="10"/>
       <c r="AR10" s="8"/>
       <c r="AS10" s="8">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT10" s="10"/>
       <c r="AU10" s="8"/>
       <c r="AV10" s="8">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW10" s="10"/>
       <c r="AX10" s="8"/>
       <c r="AY10" s="8">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ10" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA10" s="11">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:53" x14ac:dyDescent="0.25">
@@ -1594,90 +1599,92 @@
         <v>1</v>
       </c>
       <c r="M11" s="10"/>
-      <c r="N11" s="8"/>
+      <c r="N11" s="8">
+        <v>0.5</v>
+      </c>
       <c r="O11" s="8">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P11" s="10"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S11" s="10"/>
       <c r="T11" s="8"/>
       <c r="U11" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V11" s="10"/>
       <c r="W11" s="8"/>
       <c r="X11" s="8">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y11" s="10"/>
       <c r="Z11" s="8"/>
       <c r="AA11" s="8">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB11" s="10"/>
       <c r="AC11" s="8"/>
       <c r="AD11" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AE11" s="10"/>
       <c r="AF11" s="8"/>
       <c r="AG11" s="8">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH11" s="10"/>
       <c r="AI11" s="8"/>
       <c r="AJ11" s="8">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AK11" s="10"/>
       <c r="AL11" s="8"/>
       <c r="AM11" s="8">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AN11" s="10"/>
       <c r="AO11" s="8"/>
       <c r="AP11" s="8">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ11" s="10"/>
       <c r="AR11" s="8"/>
       <c r="AS11" s="8">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT11" s="10"/>
       <c r="AU11" s="8"/>
       <c r="AV11" s="8">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AW11" s="10"/>
       <c r="AX11" s="8"/>
       <c r="AY11" s="8">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AZ11" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BA11" s="11">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="2:53" ht="30" x14ac:dyDescent="0.25">
@@ -1705,90 +1712,92 @@
         <v>2</v>
       </c>
       <c r="M12" s="10"/>
-      <c r="N12" s="8"/>
+      <c r="N12" s="8">
+        <v>0.5</v>
+      </c>
       <c r="O12" s="8">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="P12" s="10"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="S12" s="10"/>
       <c r="T12" s="8"/>
       <c r="U12" s="8">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="V12" s="10"/>
       <c r="W12" s="8"/>
       <c r="X12" s="8">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="Y12" s="10"/>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AB12" s="10"/>
       <c r="AC12" s="8"/>
       <c r="AD12" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AE12" s="10"/>
       <c r="AF12" s="8"/>
       <c r="AG12" s="8">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AH12" s="10"/>
       <c r="AI12" s="8"/>
       <c r="AJ12" s="8">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AK12" s="10"/>
       <c r="AL12" s="8"/>
       <c r="AM12" s="8">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AN12" s="10"/>
       <c r="AO12" s="8"/>
       <c r="AP12" s="8">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12" s="10"/>
       <c r="AR12" s="8"/>
       <c r="AS12" s="8">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT12" s="10"/>
       <c r="AU12" s="8"/>
       <c r="AV12" s="8">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AW12" s="10"/>
       <c r="AX12" s="8"/>
       <c r="AY12" s="8">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AZ12" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BA12" s="11">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="13" spans="2:53" x14ac:dyDescent="0.25">
@@ -1816,90 +1825,92 @@
         <v>3</v>
       </c>
       <c r="M13" s="10"/>
-      <c r="N13" s="8"/>
+      <c r="N13" s="8">
+        <v>1</v>
+      </c>
       <c r="O13" s="8">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P13" s="10"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S13" s="10"/>
       <c r="T13" s="8"/>
       <c r="U13" s="8">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V13" s="10"/>
       <c r="W13" s="8"/>
       <c r="X13" s="8">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y13" s="10"/>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB13" s="10"/>
       <c r="AC13" s="8"/>
       <c r="AD13" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE13" s="10"/>
       <c r="AF13" s="8"/>
       <c r="AG13" s="8">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH13" s="10"/>
       <c r="AI13" s="8"/>
       <c r="AJ13" s="8">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK13" s="10"/>
       <c r="AL13" s="8"/>
       <c r="AM13" s="8">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN13" s="10"/>
       <c r="AO13" s="8"/>
       <c r="AP13" s="8">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ13" s="10"/>
       <c r="AR13" s="8"/>
       <c r="AS13" s="8">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT13" s="10"/>
       <c r="AU13" s="8"/>
       <c r="AV13" s="8">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW13" s="10"/>
       <c r="AX13" s="8"/>
       <c r="AY13" s="8">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ13" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="11">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:53" ht="30" x14ac:dyDescent="0.25">
@@ -1931,90 +1942,92 @@
         <v>1</v>
       </c>
       <c r="M14" s="10"/>
-      <c r="N14" s="8"/>
+      <c r="N14" s="8">
+        <v>0.2</v>
+      </c>
       <c r="O14" s="8">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="P14" s="10"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="S14" s="10"/>
       <c r="T14" s="8"/>
       <c r="U14" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="V14" s="10"/>
       <c r="W14" s="8"/>
       <c r="X14" s="8">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Y14" s="10"/>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB14" s="10"/>
       <c r="AC14" s="8"/>
       <c r="AD14" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AE14" s="10"/>
       <c r="AF14" s="8"/>
       <c r="AG14" s="8">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AH14" s="10"/>
       <c r="AI14" s="8"/>
       <c r="AJ14" s="8">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AK14" s="10"/>
       <c r="AL14" s="8"/>
       <c r="AM14" s="8">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AN14" s="10"/>
       <c r="AO14" s="8"/>
       <c r="AP14" s="8">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ14" s="10"/>
       <c r="AR14" s="8"/>
       <c r="AS14" s="8">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT14" s="10"/>
       <c r="AU14" s="8"/>
       <c r="AV14" s="8">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AW14" s="10"/>
       <c r="AX14" s="8"/>
       <c r="AY14" s="8">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AZ14" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="BA14" s="11">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="15" spans="2:53" x14ac:dyDescent="0.25">
@@ -2042,90 +2055,92 @@
         <v>1</v>
       </c>
       <c r="M15" s="10"/>
-      <c r="N15" s="8"/>
+      <c r="N15" s="8">
+        <v>0.2</v>
+      </c>
       <c r="O15" s="8">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="P15" s="10"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="S15" s="10"/>
       <c r="T15" s="8"/>
       <c r="U15" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="V15" s="10"/>
       <c r="W15" s="8"/>
       <c r="X15" s="8">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Y15" s="10"/>
       <c r="Z15" s="8"/>
       <c r="AA15" s="8">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB15" s="10"/>
       <c r="AC15" s="8"/>
       <c r="AD15" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AE15" s="10"/>
       <c r="AF15" s="8"/>
       <c r="AG15" s="8">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AH15" s="10"/>
       <c r="AI15" s="8"/>
       <c r="AJ15" s="8">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AK15" s="10"/>
       <c r="AL15" s="8"/>
       <c r="AM15" s="8">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AN15" s="10"/>
       <c r="AO15" s="8"/>
       <c r="AP15" s="8">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ15" s="10"/>
       <c r="AR15" s="8"/>
       <c r="AS15" s="8">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT15" s="10"/>
       <c r="AU15" s="8"/>
       <c r="AV15" s="8">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AW15" s="10"/>
       <c r="AX15" s="8"/>
       <c r="AY15" s="8">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AZ15" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="BA15" s="11">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="16" spans="2:53" ht="30" x14ac:dyDescent="0.25">
@@ -2153,90 +2168,92 @@
         <v>1</v>
       </c>
       <c r="M16" s="10"/>
-      <c r="N16" s="8"/>
+      <c r="N16" s="8">
+        <v>0.25</v>
+      </c>
       <c r="O16" s="8">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P16" s="10"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S16" s="10"/>
       <c r="T16" s="8"/>
       <c r="U16" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="V16" s="10"/>
       <c r="W16" s="8"/>
       <c r="X16" s="8">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y16" s="10"/>
       <c r="Z16" s="8"/>
       <c r="AA16" s="8">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AB16" s="10"/>
       <c r="AC16" s="8"/>
       <c r="AD16" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AE16" s="10"/>
       <c r="AF16" s="8"/>
       <c r="AG16" s="8">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AH16" s="10"/>
       <c r="AI16" s="8"/>
       <c r="AJ16" s="8">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AK16" s="10"/>
       <c r="AL16" s="8"/>
       <c r="AM16" s="8">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AN16" s="10"/>
       <c r="AO16" s="8"/>
       <c r="AP16" s="8">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ16" s="10"/>
       <c r="AR16" s="8"/>
       <c r="AS16" s="8">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT16" s="10"/>
       <c r="AU16" s="8"/>
       <c r="AV16" s="8">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AW16" s="10"/>
       <c r="AX16" s="8"/>
       <c r="AY16" s="8">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AZ16" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="BA16" s="11">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="17" spans="2:53" ht="30" x14ac:dyDescent="0.25">
@@ -2270,76 +2287,78 @@
         <v>1</v>
       </c>
       <c r="P17" s="10"/>
-      <c r="Q17" s="8"/>
+      <c r="Q17" s="8">
+        <v>0.3</v>
+      </c>
       <c r="R17" s="8">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S17" s="10"/>
       <c r="T17" s="8"/>
       <c r="U17" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="V17" s="10"/>
       <c r="W17" s="8"/>
       <c r="X17" s="8">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Y17" s="10"/>
       <c r="Z17" s="8"/>
       <c r="AA17" s="8">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AB17" s="10"/>
       <c r="AC17" s="8"/>
       <c r="AD17" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AE17" s="10"/>
       <c r="AF17" s="8"/>
       <c r="AG17" s="8">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AH17" s="10"/>
       <c r="AI17" s="8"/>
       <c r="AJ17" s="8">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AK17" s="10"/>
       <c r="AL17" s="8"/>
       <c r="AM17" s="8">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AN17" s="10"/>
       <c r="AO17" s="8"/>
       <c r="AP17" s="8">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AQ17" s="10"/>
       <c r="AR17" s="8"/>
       <c r="AS17" s="8">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AT17" s="10"/>
       <c r="AU17" s="8"/>
       <c r="AV17" s="8">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AW17" s="10"/>
       <c r="AX17" s="8"/>
       <c r="AY17" s="8">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AZ17" s="11" t="e">
         <f>H17+K17+N17+Q17+T17+W17+Z17+AC17+AF17+AI17+AL17+AO17+AR17+AU17+AX17+#REF!+#REF!+#REF!+#REF!+#REF!</f>
@@ -2381,76 +2400,78 @@
         <v>2</v>
       </c>
       <c r="P18" s="10"/>
-      <c r="Q18" s="8"/>
+      <c r="Q18" s="8">
+        <v>1</v>
+      </c>
       <c r="R18" s="8">
         <f t="shared" ref="R18:R40" si="20">O18-Q18</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S18" s="10"/>
       <c r="T18" s="8"/>
       <c r="U18" s="8">
         <f t="shared" ref="U18:U40" si="21">R18-T18</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V18" s="10"/>
       <c r="W18" s="8"/>
       <c r="X18" s="8">
         <f t="shared" ref="X18:X40" si="22">U18-W18</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y18" s="10"/>
       <c r="Z18" s="8"/>
       <c r="AA18" s="8">
         <f t="shared" ref="AA18:AA40" si="23">X18-Z18</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB18" s="10"/>
       <c r="AC18" s="8"/>
       <c r="AD18" s="8">
         <f t="shared" ref="AD18:AD40" si="24">AA18-AC18</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE18" s="10"/>
       <c r="AF18" s="8"/>
       <c r="AG18" s="8">
         <f t="shared" ref="AG18:AG40" si="25">AD18-AF18</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH18" s="10"/>
       <c r="AI18" s="8"/>
       <c r="AJ18" s="8">
         <f t="shared" ref="AJ18:AJ40" si="26">AG18-AI18</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK18" s="10"/>
       <c r="AL18" s="8"/>
       <c r="AM18" s="8">
         <f t="shared" ref="AM18:AM40" si="27">AJ18-AL18</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN18" s="10"/>
       <c r="AO18" s="8"/>
       <c r="AP18" s="8">
         <f t="shared" ref="AP18:AP40" si="28">AM18-AO18</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ18" s="10"/>
       <c r="AR18" s="8"/>
       <c r="AS18" s="8">
         <f t="shared" ref="AS18:AS40" si="29">AP18-AR18</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT18" s="10"/>
       <c r="AU18" s="8"/>
       <c r="AV18" s="8">
         <f t="shared" ref="AV18:AV40" si="30">AS18-AU18</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW18" s="10"/>
       <c r="AX18" s="8"/>
       <c r="AY18" s="8">
         <f t="shared" ref="AY18:AY40" si="31">AV18-AX18</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ18" s="11" t="e">
         <f>H18+K18+N18+Q18+T18+W18+Z18+AC18+AF18+AI18+AL18+AO18+AR18+AU18+AX18+#REF!+#REF!+#REF!+#REF!+#REF!</f>
@@ -2492,76 +2513,78 @@
         <v>2</v>
       </c>
       <c r="P19" s="10"/>
-      <c r="Q19" s="8"/>
+      <c r="Q19" s="8">
+        <v>1.5</v>
+      </c>
       <c r="R19" s="8">
         <f t="shared" si="20"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="S19" s="10"/>
       <c r="T19" s="8"/>
       <c r="U19" s="8">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="V19" s="10"/>
       <c r="W19" s="8"/>
       <c r="X19" s="8">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="Y19" s="10"/>
       <c r="Z19" s="8"/>
       <c r="AA19" s="8">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AB19" s="10"/>
       <c r="AC19" s="8"/>
       <c r="AD19" s="8">
         <f t="shared" si="24"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AE19" s="10"/>
       <c r="AF19" s="8"/>
       <c r="AG19" s="8">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AH19" s="10"/>
       <c r="AI19" s="8"/>
       <c r="AJ19" s="8">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AK19" s="10"/>
       <c r="AL19" s="8"/>
       <c r="AM19" s="8">
         <f t="shared" si="27"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AN19" s="10"/>
       <c r="AO19" s="8"/>
       <c r="AP19" s="8">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AQ19" s="10"/>
       <c r="AR19" s="8"/>
       <c r="AS19" s="8">
         <f t="shared" si="29"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AT19" s="10"/>
       <c r="AU19" s="8"/>
       <c r="AV19" s="8">
         <f t="shared" si="30"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AW19" s="10"/>
       <c r="AX19" s="8"/>
       <c r="AY19" s="8">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AZ19" s="11" t="e">
         <f>H19+K19+N19+Q19+T19+W19+Z19+AC19+AF19+AI19+AL19+AO19+AR19+AU19+AX19+#REF!+#REF!+#REF!+#REF!+#REF!</f>
@@ -2603,76 +2626,78 @@
         <v>2</v>
       </c>
       <c r="P20" s="10"/>
-      <c r="Q20" s="8"/>
+      <c r="Q20" s="8">
+        <v>1</v>
+      </c>
       <c r="R20" s="8">
         <f t="shared" si="20"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S20" s="10"/>
       <c r="T20" s="8"/>
       <c r="U20" s="8">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V20" s="10"/>
       <c r="W20" s="8"/>
       <c r="X20" s="8">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y20" s="10"/>
       <c r="Z20" s="8"/>
       <c r="AA20" s="8">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB20" s="10"/>
       <c r="AC20" s="8"/>
       <c r="AD20" s="8">
         <f t="shared" si="24"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE20" s="10"/>
       <c r="AF20" s="8"/>
       <c r="AG20" s="8">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH20" s="10"/>
       <c r="AI20" s="8"/>
       <c r="AJ20" s="8">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK20" s="10"/>
       <c r="AL20" s="8"/>
       <c r="AM20" s="8">
         <f t="shared" si="27"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN20" s="10"/>
       <c r="AO20" s="8"/>
       <c r="AP20" s="8">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ20" s="10"/>
       <c r="AR20" s="8"/>
       <c r="AS20" s="8">
         <f t="shared" si="29"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT20" s="10"/>
       <c r="AU20" s="8"/>
       <c r="AV20" s="8">
         <f t="shared" si="30"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW20" s="10"/>
       <c r="AX20" s="8"/>
       <c r="AY20" s="8">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ20" s="11" t="e">
         <f>H20+K20+N20+Q20+T20+W20+Z20+AC20+AF20+AI20+AL20+AO20+AR20+AU20+AX20+#REF!+#REF!+#REF!+#REF!+#REF!</f>
@@ -2720,70 +2745,72 @@
         <v>3</v>
       </c>
       <c r="S21" s="10"/>
-      <c r="T21" s="8"/>
+      <c r="T21" s="8">
+        <v>1.5</v>
+      </c>
       <c r="U21" s="8">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="V21" s="10"/>
       <c r="W21" s="8"/>
       <c r="X21" s="8">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="Y21" s="10"/>
       <c r="Z21" s="8"/>
       <c r="AA21" s="8">
         <f t="shared" si="23"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AB21" s="10"/>
       <c r="AC21" s="8"/>
       <c r="AD21" s="8">
         <f t="shared" si="24"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AE21" s="10"/>
       <c r="AF21" s="8"/>
       <c r="AG21" s="8">
         <f t="shared" si="25"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AH21" s="10"/>
       <c r="AI21" s="8"/>
       <c r="AJ21" s="8">
         <f t="shared" si="26"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AK21" s="10"/>
       <c r="AL21" s="8"/>
       <c r="AM21" s="8">
         <f t="shared" si="27"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AN21" s="10"/>
       <c r="AO21" s="8"/>
       <c r="AP21" s="8">
         <f t="shared" si="28"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ21" s="10"/>
       <c r="AR21" s="8"/>
       <c r="AS21" s="8">
         <f t="shared" si="29"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT21" s="10"/>
       <c r="AU21" s="8"/>
       <c r="AV21" s="8">
         <f t="shared" si="30"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AW21" s="10"/>
       <c r="AX21" s="8"/>
       <c r="AY21" s="8">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AZ21" s="11" t="e">
         <f>H21+K21+N21+Q21+T21+W21+Z21+AC21+AF21+AI21+AL21+AO21+AR21+AU21+AX21+#REF!+#REF!+#REF!+#REF!+#REF!</f>
@@ -2835,70 +2862,72 @@
         <v>1</v>
       </c>
       <c r="S22" s="10"/>
-      <c r="T22" s="8"/>
+      <c r="T22" s="8">
+        <v>0.2</v>
+      </c>
       <c r="U22" s="8">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="V22" s="10"/>
       <c r="W22" s="8"/>
       <c r="X22" s="8">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Y22" s="10"/>
       <c r="Z22" s="8"/>
       <c r="AA22" s="8">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB22" s="10"/>
       <c r="AC22" s="8"/>
       <c r="AD22" s="8">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AE22" s="10"/>
       <c r="AF22" s="8"/>
       <c r="AG22" s="8">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AH22" s="10"/>
       <c r="AI22" s="8"/>
       <c r="AJ22" s="8">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AK22" s="10"/>
       <c r="AL22" s="8"/>
       <c r="AM22" s="8">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AN22" s="10"/>
       <c r="AO22" s="8"/>
       <c r="AP22" s="8">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ22" s="10"/>
       <c r="AR22" s="8"/>
       <c r="AS22" s="8">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT22" s="10"/>
       <c r="AU22" s="8"/>
       <c r="AV22" s="8">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AW22" s="10"/>
       <c r="AX22" s="8"/>
       <c r="AY22" s="8">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AZ22" s="11" t="e">
         <f>H22+K22+N22+Q22+T22+W22+Z22+AC22+AF22+AI22+AL22+AO22+AR22+AU22+AX22+#REF!+#REF!+#REF!+#REF!+#REF!</f>
@@ -2946,70 +2975,72 @@
         <v>1</v>
       </c>
       <c r="S23" s="10"/>
-      <c r="T23" s="8"/>
+      <c r="T23" s="8">
+        <v>0.2</v>
+      </c>
       <c r="U23" s="8">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="V23" s="10"/>
       <c r="W23" s="8"/>
       <c r="X23" s="8">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Y23" s="10"/>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB23" s="10"/>
       <c r="AC23" s="8"/>
       <c r="AD23" s="8">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AE23" s="10"/>
       <c r="AF23" s="8"/>
       <c r="AG23" s="8">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AH23" s="10"/>
       <c r="AI23" s="8"/>
       <c r="AJ23" s="8">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AK23" s="10"/>
       <c r="AL23" s="8"/>
       <c r="AM23" s="8">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AN23" s="10"/>
       <c r="AO23" s="8"/>
       <c r="AP23" s="8">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ23" s="10"/>
       <c r="AR23" s="8"/>
       <c r="AS23" s="8">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT23" s="10"/>
       <c r="AU23" s="8"/>
       <c r="AV23" s="8">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AW23" s="10"/>
       <c r="AX23" s="8"/>
       <c r="AY23" s="8">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AZ23" s="11" t="e">
         <f>H23+K23+N23+Q23+T23+W23+Z23+AC23+AF23+AI23+AL23+AO23+AR23+AU23+AX23+#REF!+#REF!+#REF!+#REF!+#REF!</f>
@@ -3057,70 +3088,72 @@
         <v>1</v>
       </c>
       <c r="S24" s="10"/>
-      <c r="T24" s="8"/>
+      <c r="T24" s="8">
+        <v>0.25</v>
+      </c>
       <c r="U24" s="8">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="V24" s="10"/>
       <c r="W24" s="8"/>
       <c r="X24" s="8">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y24" s="10"/>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AB24" s="10"/>
       <c r="AC24" s="8"/>
       <c r="AD24" s="8">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AE24" s="10"/>
       <c r="AF24" s="8"/>
       <c r="AG24" s="8">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AH24" s="10"/>
       <c r="AI24" s="8"/>
       <c r="AJ24" s="8">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AK24" s="10"/>
       <c r="AL24" s="8"/>
       <c r="AM24" s="8">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AN24" s="10"/>
       <c r="AO24" s="8"/>
       <c r="AP24" s="8">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ24" s="10"/>
       <c r="AR24" s="8"/>
       <c r="AS24" s="8">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT24" s="10"/>
       <c r="AU24" s="8"/>
       <c r="AV24" s="8">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AW24" s="10"/>
       <c r="AX24" s="8"/>
       <c r="AY24" s="8">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AZ24" s="11" t="e">
         <f>H24+K24+N24+Q24+T24+W24+Z24+AC24+AF24+AI24+AL24+AO24+AR24+AU24+AX24+#REF!+#REF!+#REF!+#REF!+#REF!</f>
@@ -3174,64 +3207,66 @@
         <v>1</v>
       </c>
       <c r="V25" s="10"/>
-      <c r="W25" s="8"/>
+      <c r="W25" s="8">
+        <v>0.8</v>
+      </c>
       <c r="X25" s="8">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="Y25" s="10"/>
       <c r="Z25" s="8"/>
       <c r="AA25" s="8">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="AB25" s="10"/>
       <c r="AC25" s="8"/>
       <c r="AD25" s="8">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="AE25" s="10"/>
       <c r="AF25" s="8"/>
       <c r="AG25" s="8">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="AH25" s="10"/>
       <c r="AI25" s="8"/>
       <c r="AJ25" s="8">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="AK25" s="10"/>
       <c r="AL25" s="8"/>
       <c r="AM25" s="8">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="AN25" s="10"/>
       <c r="AO25" s="8"/>
       <c r="AP25" s="8">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="AQ25" s="10"/>
       <c r="AR25" s="8"/>
       <c r="AS25" s="8">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="AT25" s="10"/>
       <c r="AU25" s="8"/>
       <c r="AV25" s="8">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="AW25" s="10"/>
       <c r="AX25" s="8"/>
       <c r="AY25" s="8">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="AZ25" s="11" t="e">
         <f>H25+K25+N25+Q25+T25+W25+Z25+AC25+AF25+AI25+AL25+AO25+AR25+AU25+AX25+#REF!+#REF!+#REF!+#REF!+#REF!</f>
@@ -3285,64 +3320,66 @@
         <v>2</v>
       </c>
       <c r="V26" s="10"/>
-      <c r="W26" s="8"/>
+      <c r="W26" s="8">
+        <v>1</v>
+      </c>
       <c r="X26" s="8">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y26" s="10"/>
       <c r="Z26" s="8"/>
       <c r="AA26" s="8">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB26" s="10"/>
       <c r="AC26" s="8"/>
       <c r="AD26" s="8">
         <f t="shared" si="24"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE26" s="10"/>
       <c r="AF26" s="8"/>
       <c r="AG26" s="8">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH26" s="10"/>
       <c r="AI26" s="8"/>
       <c r="AJ26" s="8">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK26" s="10"/>
       <c r="AL26" s="8"/>
       <c r="AM26" s="8">
         <f t="shared" si="27"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN26" s="10"/>
       <c r="AO26" s="8"/>
       <c r="AP26" s="8">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ26" s="10"/>
       <c r="AR26" s="8"/>
       <c r="AS26" s="8">
         <f t="shared" si="29"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT26" s="10"/>
       <c r="AU26" s="8"/>
       <c r="AV26" s="8">
         <f t="shared" si="30"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW26" s="10"/>
       <c r="AX26" s="8"/>
       <c r="AY26" s="8">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ26" s="11" t="e">
         <f>H26+K26+N26+Q26+T26+W26+Z26+AC26+AF26+AI26+AL26+AO26+AR26+AU26+AX26+#REF!+#REF!+#REF!+#REF!+#REF!</f>
@@ -3396,64 +3433,66 @@
         <v>1</v>
       </c>
       <c r="V27" s="10"/>
-      <c r="W27" s="8"/>
+      <c r="W27" s="8">
+        <v>0.5</v>
+      </c>
       <c r="X27" s="8">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y27" s="10"/>
       <c r="Z27" s="8"/>
       <c r="AA27" s="8">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB27" s="10"/>
       <c r="AC27" s="8"/>
       <c r="AD27" s="8">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AE27" s="10"/>
       <c r="AF27" s="8"/>
       <c r="AG27" s="8">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH27" s="10"/>
       <c r="AI27" s="8"/>
       <c r="AJ27" s="8">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AK27" s="10"/>
       <c r="AL27" s="8"/>
       <c r="AM27" s="8">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AN27" s="10"/>
       <c r="AO27" s="8"/>
       <c r="AP27" s="8">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ27" s="10"/>
       <c r="AR27" s="8"/>
       <c r="AS27" s="8">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT27" s="10"/>
       <c r="AU27" s="8"/>
       <c r="AV27" s="8">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AW27" s="10"/>
       <c r="AX27" s="8"/>
       <c r="AY27" s="8">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AZ27" s="11" t="e">
         <f>H27+K27+N27+Q27+T27+W27+Z27+AC27+AF27+AI27+AL27+AO27+AR27+AU27+AX27+#REF!+#REF!+#REF!+#REF!+#REF!</f>
@@ -3507,64 +3546,66 @@
         <v>2</v>
       </c>
       <c r="V28" s="10"/>
-      <c r="W28" s="8"/>
+      <c r="W28" s="8">
+        <v>0.8</v>
+      </c>
       <c r="X28" s="8">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="Y28" s="10"/>
       <c r="Z28" s="8"/>
       <c r="AA28" s="8">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="AB28" s="10"/>
       <c r="AC28" s="8"/>
       <c r="AD28" s="8">
         <f t="shared" si="24"/>
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="AE28" s="10"/>
       <c r="AF28" s="8"/>
       <c r="AG28" s="8">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="AH28" s="10"/>
       <c r="AI28" s="8"/>
       <c r="AJ28" s="8">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="AK28" s="10"/>
       <c r="AL28" s="8"/>
       <c r="AM28" s="8">
         <f t="shared" si="27"/>
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="AN28" s="10"/>
       <c r="AO28" s="8"/>
       <c r="AP28" s="8">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="AQ28" s="10"/>
       <c r="AR28" s="8"/>
       <c r="AS28" s="8">
         <f t="shared" si="29"/>
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="AT28" s="10"/>
       <c r="AU28" s="8"/>
       <c r="AV28" s="8">
         <f t="shared" si="30"/>
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="AW28" s="10"/>
       <c r="AX28" s="8"/>
       <c r="AY28" s="8">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="AZ28" s="11" t="e">
         <f>H28+K28+N28+Q28+T28+W28+Z28+AC28+AF28+AI28+AL28+AO28+AR28+AU28+AX28+#REF!+#REF!+#REF!+#REF!+#REF!</f>
@@ -3624,58 +3665,60 @@
         <v>3</v>
       </c>
       <c r="Y29" s="10"/>
-      <c r="Z29" s="8"/>
+      <c r="Z29" s="8">
+        <v>1.5</v>
+      </c>
       <c r="AA29" s="8">
         <f t="shared" si="23"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AB29" s="10"/>
       <c r="AC29" s="8"/>
       <c r="AD29" s="8">
         <f t="shared" si="24"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AE29" s="10"/>
       <c r="AF29" s="8"/>
       <c r="AG29" s="8">
         <f t="shared" si="25"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AH29" s="10"/>
       <c r="AI29" s="8"/>
       <c r="AJ29" s="8">
         <f t="shared" si="26"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AK29" s="10"/>
       <c r="AL29" s="8"/>
       <c r="AM29" s="8">
         <f t="shared" si="27"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AN29" s="10"/>
       <c r="AO29" s="8"/>
       <c r="AP29" s="8">
         <f t="shared" si="28"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ29" s="10"/>
       <c r="AR29" s="8"/>
       <c r="AS29" s="8">
         <f t="shared" si="29"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT29" s="10"/>
       <c r="AU29" s="8"/>
       <c r="AV29" s="8">
         <f t="shared" si="30"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AW29" s="10"/>
       <c r="AX29" s="8"/>
       <c r="AY29" s="8">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AZ29" s="11" t="e">
         <f>H29+K29+N29+Q29+T29+W29+Z29+AC29+AF29+AI29+AL29+AO29+AR29+AU29+AX29+#REF!+#REF!+#REF!+#REF!+#REF!</f>
@@ -3739,58 +3782,60 @@
         <v>1</v>
       </c>
       <c r="Y30" s="10"/>
-      <c r="Z30" s="8"/>
+      <c r="Z30" s="8">
+        <v>0.25</v>
+      </c>
       <c r="AA30" s="8">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AB30" s="10"/>
       <c r="AC30" s="8"/>
       <c r="AD30" s="8">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AE30" s="10"/>
       <c r="AF30" s="8"/>
       <c r="AG30" s="8">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AH30" s="10"/>
       <c r="AI30" s="8"/>
       <c r="AJ30" s="8">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AK30" s="10"/>
       <c r="AL30" s="8"/>
       <c r="AM30" s="8">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AN30" s="10"/>
       <c r="AO30" s="8"/>
       <c r="AP30" s="8">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ30" s="10"/>
       <c r="AR30" s="8"/>
       <c r="AS30" s="8">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT30" s="10"/>
       <c r="AU30" s="8"/>
       <c r="AV30" s="8">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AW30" s="10"/>
       <c r="AX30" s="8"/>
       <c r="AY30" s="8">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AZ30" s="11" t="e">
         <f>H30+K30+N30+Q30+T30+W30+Z30+AC30+AF30+AI30+AL30+AO30+AR30+AU30+AX30+#REF!+#REF!+#REF!+#REF!+#REF!</f>
@@ -3850,58 +3895,60 @@
         <v>1</v>
       </c>
       <c r="Y31" s="10"/>
-      <c r="Z31" s="8"/>
+      <c r="Z31" s="8">
+        <v>0.2</v>
+      </c>
       <c r="AA31" s="8">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB31" s="10"/>
       <c r="AC31" s="8"/>
       <c r="AD31" s="8">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AE31" s="10"/>
       <c r="AF31" s="8"/>
       <c r="AG31" s="8">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AH31" s="10"/>
       <c r="AI31" s="8"/>
       <c r="AJ31" s="8">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AK31" s="10"/>
       <c r="AL31" s="8"/>
       <c r="AM31" s="8">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AN31" s="10"/>
       <c r="AO31" s="8"/>
       <c r="AP31" s="8">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ31" s="10"/>
       <c r="AR31" s="8"/>
       <c r="AS31" s="8">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT31" s="10"/>
       <c r="AU31" s="8"/>
       <c r="AV31" s="8">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AW31" s="10"/>
       <c r="AX31" s="8"/>
       <c r="AY31" s="8">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AZ31" s="11" t="e">
         <f>H31+K31+N31+Q31+T31+W31+Z31+AC31+AF31+AI31+AL31+AO31+AR31+AU31+AX31+#REF!+#REF!+#REF!+#REF!+#REF!</f>
@@ -3961,58 +4008,60 @@
         <v>1</v>
       </c>
       <c r="Y32" s="10"/>
-      <c r="Z32" s="8"/>
+      <c r="Z32" s="8">
+        <v>0.25</v>
+      </c>
       <c r="AA32" s="8">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AB32" s="10"/>
       <c r="AC32" s="8"/>
       <c r="AD32" s="8">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AE32" s="10"/>
       <c r="AF32" s="8"/>
       <c r="AG32" s="8">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AH32" s="10"/>
       <c r="AI32" s="8"/>
       <c r="AJ32" s="8">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AK32" s="10"/>
       <c r="AL32" s="8"/>
       <c r="AM32" s="8">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AN32" s="10"/>
       <c r="AO32" s="8"/>
       <c r="AP32" s="8">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ32" s="10"/>
       <c r="AR32" s="8"/>
       <c r="AS32" s="8">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT32" s="10"/>
       <c r="AU32" s="8"/>
       <c r="AV32" s="8">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AW32" s="10"/>
       <c r="AX32" s="8"/>
       <c r="AY32" s="8">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AZ32" s="11" t="e">
         <f>H32+K32+N32+Q32+T32+W32+Z32+AC32+AF32+AI32+AL32+AO32+AR32+AU32+AX32+#REF!+#REF!+#REF!+#REF!+#REF!</f>
@@ -4078,52 +4127,54 @@
         <v>1</v>
       </c>
       <c r="AB33" s="10"/>
-      <c r="AC33" s="8"/>
+      <c r="AC33" s="8">
+        <v>0.7</v>
+      </c>
       <c r="AD33" s="8">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AE33" s="10"/>
       <c r="AF33" s="8"/>
       <c r="AG33" s="8">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AH33" s="10"/>
       <c r="AI33" s="8"/>
       <c r="AJ33" s="8">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AK33" s="10"/>
       <c r="AL33" s="8"/>
       <c r="AM33" s="8">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AN33" s="10"/>
       <c r="AO33" s="8"/>
       <c r="AP33" s="8">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AQ33" s="10"/>
       <c r="AR33" s="8"/>
       <c r="AS33" s="8">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AT33" s="10"/>
       <c r="AU33" s="8"/>
       <c r="AV33" s="8">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AW33" s="10"/>
       <c r="AX33" s="8"/>
       <c r="AY33" s="8">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AZ33" s="11" t="e">
         <f>H33+K33+N33+Q33+T33+W33+Z33+AC33+AF33+AI33+AL33+AO33+AR33+AU33+AX33+#REF!+#REF!+#REF!+#REF!+#REF!</f>
@@ -4189,52 +4240,54 @@
         <v>1</v>
       </c>
       <c r="AB34" s="10"/>
-      <c r="AC34" s="8"/>
+      <c r="AC34" s="8">
+        <v>0.8</v>
+      </c>
       <c r="AD34" s="8">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="AE34" s="10"/>
       <c r="AF34" s="8"/>
       <c r="AG34" s="8">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="AH34" s="10"/>
       <c r="AI34" s="8"/>
       <c r="AJ34" s="8">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="AK34" s="10"/>
       <c r="AL34" s="8"/>
       <c r="AM34" s="8">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="AN34" s="10"/>
       <c r="AO34" s="8"/>
       <c r="AP34" s="8">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="AQ34" s="10"/>
       <c r="AR34" s="8"/>
       <c r="AS34" s="8">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="AT34" s="10"/>
       <c r="AU34" s="8"/>
       <c r="AV34" s="8">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="AW34" s="10"/>
       <c r="AX34" s="8"/>
       <c r="AY34" s="8">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="AZ34" s="11" t="e">
         <f>H34+K34+N34+Q34+T34+W34+Z34+AC34+AF34+AI34+AL34+AO34+AR34+AU34+AX34+#REF!+#REF!+#REF!+#REF!+#REF!</f>
@@ -4300,52 +4353,54 @@
         <v>2</v>
       </c>
       <c r="AB35" s="10"/>
-      <c r="AC35" s="8"/>
+      <c r="AC35" s="8">
+        <v>0.6</v>
+      </c>
       <c r="AD35" s="8">
         <f t="shared" si="24"/>
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AE35" s="10"/>
       <c r="AF35" s="8"/>
       <c r="AG35" s="8">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AH35" s="10"/>
       <c r="AI35" s="8"/>
       <c r="AJ35" s="8">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AK35" s="10"/>
       <c r="AL35" s="8"/>
       <c r="AM35" s="8">
         <f t="shared" si="27"/>
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AN35" s="10"/>
       <c r="AO35" s="8"/>
       <c r="AP35" s="8">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AQ35" s="10"/>
       <c r="AR35" s="8"/>
       <c r="AS35" s="8">
         <f t="shared" si="29"/>
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AT35" s="10"/>
       <c r="AU35" s="8"/>
       <c r="AV35" s="8">
         <f t="shared" si="30"/>
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AW35" s="10"/>
       <c r="AX35" s="8"/>
       <c r="AY35" s="8">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AZ35" s="11" t="e">
         <f>H35+K35+N35+Q35+T35+W35+Z35+AC35+AF35+AI35+AL35+AO35+AR35+AU35+AX35+#REF!+#REF!+#REF!+#REF!+#REF!</f>
@@ -4411,52 +4466,54 @@
         <v>2</v>
       </c>
       <c r="AB36" s="10"/>
-      <c r="AC36" s="8"/>
+      <c r="AC36" s="8">
+        <v>1</v>
+      </c>
       <c r="AD36" s="8">
         <f t="shared" si="24"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE36" s="10"/>
       <c r="AF36" s="8"/>
       <c r="AG36" s="8">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH36" s="10"/>
       <c r="AI36" s="8"/>
       <c r="AJ36" s="8">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK36" s="10"/>
       <c r="AL36" s="8"/>
       <c r="AM36" s="8">
         <f t="shared" si="27"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN36" s="10"/>
       <c r="AO36" s="8"/>
       <c r="AP36" s="8">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ36" s="10"/>
       <c r="AR36" s="8"/>
       <c r="AS36" s="8">
         <f t="shared" si="29"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT36" s="10"/>
       <c r="AU36" s="8"/>
       <c r="AV36" s="8">
         <f t="shared" si="30"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW36" s="10"/>
       <c r="AX36" s="8"/>
       <c r="AY36" s="8">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ36" s="11" t="e">
         <f>H36+K36+N36+Q36+T36+W36+Z36+AC36+AF36+AI36+AL36+AO36+AR36+AU36+AX36+#REF!+#REF!+#REF!+#REF!+#REF!</f>
@@ -4528,46 +4585,48 @@
         <v>3</v>
       </c>
       <c r="AE37" s="10"/>
-      <c r="AF37" s="8"/>
+      <c r="AF37" s="8">
+        <v>2</v>
+      </c>
       <c r="AG37" s="8">
         <f t="shared" si="25"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH37" s="10"/>
       <c r="AI37" s="8"/>
       <c r="AJ37" s="8">
         <f t="shared" si="26"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK37" s="10"/>
       <c r="AL37" s="8"/>
       <c r="AM37" s="8">
         <f t="shared" si="27"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AN37" s="10"/>
       <c r="AO37" s="8"/>
       <c r="AP37" s="8">
         <f t="shared" si="28"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AQ37" s="10"/>
       <c r="AR37" s="8"/>
       <c r="AS37" s="8">
         <f t="shared" si="29"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT37" s="10"/>
       <c r="AU37" s="8"/>
       <c r="AV37" s="8">
         <f t="shared" si="30"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW37" s="10"/>
       <c r="AX37" s="8"/>
       <c r="AY37" s="8">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AZ37" s="11" t="e">
         <f>H37+K37+N37+Q37+T37+W37+Z37+AC37+AF37+AI37+AL37+AO37+AR37+AU37+AX37+#REF!+#REF!+#REF!+#REF!+#REF!</f>
@@ -4645,46 +4704,48 @@
         <v>1</v>
       </c>
       <c r="AE38" s="10"/>
-      <c r="AF38" s="8"/>
+      <c r="AF38" s="8">
+        <v>0.15</v>
+      </c>
       <c r="AG38" s="8">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="AH38" s="10"/>
       <c r="AI38" s="8"/>
       <c r="AJ38" s="8">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="AK38" s="10"/>
       <c r="AL38" s="8"/>
       <c r="AM38" s="8">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="AN38" s="10"/>
       <c r="AO38" s="8"/>
       <c r="AP38" s="8">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="AQ38" s="10"/>
       <c r="AR38" s="8"/>
       <c r="AS38" s="8">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="AT38" s="10"/>
       <c r="AU38" s="8"/>
       <c r="AV38" s="8">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="AW38" s="10"/>
       <c r="AX38" s="8"/>
       <c r="AY38" s="8">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="AZ38" s="11" t="e">
         <f>H38+K38+N38+Q38+T38+W38+Z38+AC38+AF38+AI38+AL38+AO38+AR38+AU38+AX38+#REF!+#REF!+#REF!+#REF!+#REF!</f>
@@ -4758,46 +4819,48 @@
         <v>1</v>
       </c>
       <c r="AE39" s="10"/>
-      <c r="AF39" s="8"/>
+      <c r="AF39" s="8">
+        <v>0.2</v>
+      </c>
       <c r="AG39" s="8">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AH39" s="10"/>
       <c r="AI39" s="8"/>
       <c r="AJ39" s="8">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AK39" s="10"/>
       <c r="AL39" s="8"/>
       <c r="AM39" s="8">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AN39" s="10"/>
       <c r="AO39" s="8"/>
       <c r="AP39" s="8">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ39" s="10"/>
       <c r="AR39" s="8"/>
       <c r="AS39" s="8">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT39" s="10"/>
       <c r="AU39" s="8"/>
       <c r="AV39" s="8">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AW39" s="10"/>
       <c r="AX39" s="8"/>
       <c r="AY39" s="8">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AZ39" s="11" t="e">
         <f>H39+K39+N39+Q39+T39+W39+Z39+AC39+AF39+AI39+AL39+AO39+AR39+AU39+AX39+#REF!+#REF!+#REF!+#REF!+#REF!</f>
@@ -4871,46 +4934,48 @@
         <v>1</v>
       </c>
       <c r="AE40" s="10"/>
-      <c r="AF40" s="8"/>
+      <c r="AF40" s="8">
+        <v>0.25</v>
+      </c>
       <c r="AG40" s="8">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AH40" s="10"/>
       <c r="AI40" s="8"/>
       <c r="AJ40" s="8">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AK40" s="10"/>
       <c r="AL40" s="8"/>
       <c r="AM40" s="8">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AN40" s="10"/>
       <c r="AO40" s="8"/>
       <c r="AP40" s="8">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ40" s="10"/>
       <c r="AR40" s="8"/>
       <c r="AS40" s="8">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT40" s="10"/>
       <c r="AU40" s="8"/>
       <c r="AV40" s="8">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AW40" s="10"/>
       <c r="AX40" s="8"/>
       <c r="AY40" s="8">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AZ40" s="11" t="e">
         <f>H40+K40+N40+Q40+T40+W40+Z40+AC40+AF40+AI40+AL40+AO40+AR40+AU40+AX40+#REF!+#REF!+#REF!+#REF!+#REF!</f>
@@ -4990,40 +5055,42 @@
         <v>2</v>
       </c>
       <c r="AH41" s="10"/>
-      <c r="AI41" s="8"/>
+      <c r="AI41" s="8">
+        <v>1</v>
+      </c>
       <c r="AJ41" s="8">
         <f t="shared" ref="AJ41:AJ60" si="42">AG41-AI41</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK41" s="10"/>
       <c r="AL41" s="8"/>
       <c r="AM41" s="8">
         <f t="shared" ref="AM41:AM60" si="43">AJ41-AL41</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN41" s="10"/>
       <c r="AO41" s="8"/>
       <c r="AP41" s="8">
         <f t="shared" ref="AP41:AP60" si="44">AM41-AO41</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ41" s="10"/>
       <c r="AR41" s="8"/>
       <c r="AS41" s="8">
         <f t="shared" ref="AS41:AS60" si="45">AP41-AR41</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT41" s="10"/>
       <c r="AU41" s="8"/>
       <c r="AV41" s="8">
         <f t="shared" ref="AV41:AV60" si="46">AS41-AU41</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW41" s="10"/>
       <c r="AX41" s="8"/>
       <c r="AY41" s="8">
         <f t="shared" ref="AY41:AY60" si="47">AV41-AX41</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ41" s="11" t="e">
         <f>H41+K41+N41+Q41+T41+W41+Z41+AC41+AF41+AI41+AL41+AO41+AR41+AU41+AX41+#REF!+#REF!+#REF!+#REF!+#REF!</f>
@@ -5103,40 +5170,42 @@
         <v>2</v>
       </c>
       <c r="AH42" s="10"/>
-      <c r="AI42" s="8"/>
+      <c r="AI42" s="8">
+        <v>1</v>
+      </c>
       <c r="AJ42" s="8">
         <f t="shared" si="42"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK42" s="10"/>
       <c r="AL42" s="8"/>
       <c r="AM42" s="8">
         <f t="shared" si="43"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN42" s="10"/>
       <c r="AO42" s="8"/>
       <c r="AP42" s="8">
         <f t="shared" si="44"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ42" s="10"/>
       <c r="AR42" s="8"/>
       <c r="AS42" s="8">
         <f t="shared" si="45"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT42" s="10"/>
       <c r="AU42" s="8"/>
       <c r="AV42" s="8">
         <f t="shared" si="46"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW42" s="10"/>
       <c r="AX42" s="8"/>
       <c r="AY42" s="8">
         <f t="shared" si="47"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ42" s="11" t="e">
         <f>H42+K42+N42+Q42+T42+W42+Z42+AC42+AF42+AI42+AL42+AO42+AR42+AU42+AX42+#REF!+#REF!+#REF!+#REF!+#REF!</f>
@@ -5222,34 +5291,36 @@
         <v>1</v>
       </c>
       <c r="AK43" s="10"/>
-      <c r="AL43" s="8"/>
+      <c r="AL43" s="8">
+        <v>0.8</v>
+      </c>
       <c r="AM43" s="8">
         <f t="shared" si="43"/>
-        <v>1</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="AN43" s="10"/>
       <c r="AO43" s="8"/>
       <c r="AP43" s="8">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="AQ43" s="10"/>
       <c r="AR43" s="8"/>
       <c r="AS43" s="8">
         <f t="shared" si="45"/>
-        <v>1</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="AT43" s="10"/>
       <c r="AU43" s="8"/>
       <c r="AV43" s="8">
         <f t="shared" si="46"/>
-        <v>1</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="AW43" s="10"/>
       <c r="AX43" s="8"/>
       <c r="AY43" s="8">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="AZ43" s="11" t="e">
         <f>H43+K43+N43+Q43+T43+W43+Z43+AC43+AF43+AI43+AL43+AO43+AR43+AU43+AX43+#REF!+#REF!+#REF!+#REF!+#REF!</f>
@@ -5335,34 +5406,36 @@
         <v>2</v>
       </c>
       <c r="AK44" s="10"/>
-      <c r="AL44" s="8"/>
+      <c r="AL44" s="8">
+        <v>1</v>
+      </c>
       <c r="AM44" s="8">
         <f t="shared" si="43"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN44" s="10"/>
       <c r="AO44" s="8"/>
       <c r="AP44" s="8">
         <f t="shared" si="44"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ44" s="10"/>
       <c r="AR44" s="8"/>
       <c r="AS44" s="8">
         <f t="shared" si="45"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT44" s="10"/>
       <c r="AU44" s="8"/>
       <c r="AV44" s="8">
         <f t="shared" si="46"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW44" s="10"/>
       <c r="AX44" s="8"/>
       <c r="AY44" s="8">
         <f t="shared" si="47"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ44" s="11" t="e">
         <f>H44+K44+N44+Q44+T44+W44+Z44+AC44+AF44+AI44+AL44+AO44+AR44+AU44+AX44+#REF!+#REF!+#REF!+#REF!+#REF!</f>
@@ -5448,34 +5521,36 @@
         <v>3</v>
       </c>
       <c r="AK45" s="10"/>
-      <c r="AL45" s="8"/>
+      <c r="AL45" s="8">
+        <v>1</v>
+      </c>
       <c r="AM45" s="8">
         <f t="shared" si="43"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN45" s="10"/>
       <c r="AO45" s="8"/>
       <c r="AP45" s="8">
         <f t="shared" si="44"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ45" s="10"/>
       <c r="AR45" s="8"/>
       <c r="AS45" s="8">
         <f t="shared" si="45"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT45" s="10"/>
       <c r="AU45" s="8"/>
       <c r="AV45" s="8">
         <f t="shared" si="46"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW45" s="10"/>
       <c r="AX45" s="8"/>
       <c r="AY45" s="8">
         <f t="shared" si="47"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ45" s="11" t="e">
         <f>H45+K45+N45+Q45+T45+W45+Z45+AC45+AF45+AI45+AL45+AO45+AR45+AU45+AX45+#REF!+#REF!+#REF!+#REF!+#REF!</f>
@@ -7093,6 +7168,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -7104,18 +7184,13 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <colBreaks count="3" manualBreakCount="3">
-    <brk id="21" max="18" man="1"/>
-    <brk id="36" max="18" man="1"/>
-    <brk id="53" max="18" man="1"/>
+    <brk id="21" max="44" man="1"/>
+    <brk id="36" max="44" man="1"/>
+    <brk id="53" max="44" man="1"/>
   </colBreaks>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -7133,7 +7208,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" style="4" customWidth="1"/>
